--- a/HrServiceCenterWeb/Files/考勤月报.xlsx
+++ b/HrServiceCenterWeb/Files/考勤月报.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\五通桥\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\hr\sagacity\HrServiceCenterWeb\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA431D3F-537D-4B9E-B614-9C59C4C60572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABB392C-127C-46C5-8237-6C4167E84B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{953D38AC-F60D-419C-8DF9-1C2C82CB01EA}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11175" xr2:uid="{953D38AC-F60D-419C-8DF9-1C2C82CB01EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,16 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用工单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,6 +56,21 @@
   </si>
   <si>
     <t>缺勤天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫胡丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>511181196702019991</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某省某市实验幼儿园</t>
+  </si>
+  <si>
+    <t>身份证号码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -67,6 +78,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,11 +129,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -436,20 +468,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80AA469-8892-4DDC-A454-A2F0AC03B28F}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="2" max="2" width="28" style="7" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="24.25" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.25" style="5" customWidth="1"/>
     <col min="8" max="8" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -457,23 +489,46 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3">
+        <v>44835</v>
+      </c>
+      <c r="E2">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
